--- a/Provvigioni_Agenti/bin/Debug/excelAgenti/2025-TRIM-1--BCD RAPPRESENTANZE.xlsx
+++ b/Provvigioni_Agenti/bin/Debug/excelAgenti/2025-TRIM-1--BCD RAPPRESENTANZE.xlsx
@@ -149,6 +149,9 @@
   </x:si>
   <x:si>
     <x:t>SONEPAR</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve"> - - - TOTALE: </x:t>
   </x:si>
   <x:si>
     <x:t>CATEGORIE STATISTICHE</x:t>
@@ -854,7 +857,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:AA112"/>
+  <x:dimension ref="A1:AA113"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -883,7 +886,7 @@
       <x:c r="F3" s="2"/>
       <x:c r="G3" s="2"/>
       <x:c r="H3" s="3">
-        <x:f>SUM(H24+H33)</x:f>
+        <x:f>SUM(H24+H34)</x:f>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:27">
@@ -1377,41 +1380,47 @@
       </x:c>
     </x:row>
     <x:row r="33" spans="1:27">
-      <x:c r="C33" s="4" t="s">
+      <x:c r="B33" s="5" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="C33" s="5"/>
+      <x:c r="D33" s="7">
+        <x:v>367723.828</x:v>
+      </x:c>
+      <x:c r="E33" s="5"/>
+      <x:c r="F33" s="5"/>
+      <x:c r="G33" s="5"/>
+      <x:c r="H33" s="7">
+        <x:v>7354.47656</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="34" spans="1:27">
+      <x:c r="C34" s="4" t="s">
         <x:v>39</x:v>
       </x:c>
-      <x:c r="D33" s="11">
-        <x:f>SUM(D29:D32)</x:f>
-      </x:c>
-      <x:c r="G33" s="4" t="s">
+      <x:c r="D34" s="11">
+        <x:f>SUM(D29:D33)</x:f>
+      </x:c>
+      <x:c r="G34" s="4" t="s">
         <x:v>39</x:v>
       </x:c>
-      <x:c r="H33" s="11">
-        <x:f>SUM(H29:H32)</x:f>
-      </x:c>
-    </x:row>
-    <x:row r="35" spans="1:27">
-      <x:c r="A35" s="13"/>
-      <x:c r="B35" s="13"/>
-      <x:c r="C35" s="13"/>
-      <x:c r="D35" s="13"/>
-      <x:c r="E35" s="13"/>
-      <x:c r="F35" s="13"/>
-      <x:c r="G35" s="13"/>
-      <x:c r="H35" s="13"/>
-    </x:row>
-    <x:row r="37" spans="1:27">
-      <x:c r="B37" s="4" t="s">
-        <x:v>45</x:v>
-      </x:c>
+      <x:c r="H34" s="11">
+        <x:f>SUM(H29:H33)</x:f>
+      </x:c>
+    </x:row>
+    <x:row r="36" spans="1:27">
+      <x:c r="A36" s="13"/>
+      <x:c r="B36" s="13"/>
+      <x:c r="C36" s="13"/>
+      <x:c r="D36" s="13"/>
+      <x:c r="E36" s="13"/>
+      <x:c r="F36" s="13"/>
+      <x:c r="G36" s="13"/>
+      <x:c r="H36" s="13"/>
     </x:row>
     <x:row r="38" spans="1:27">
-      <x:c r="B38" s="5" t="s">
+      <x:c r="B38" s="4" t="s">
         <x:v>46</x:v>
-      </x:c>
-      <x:c r="C38" s="5"/>
-      <x:c r="D38" s="7">
-        <x:v>10453.18</x:v>
       </x:c>
     </x:row>
     <x:row r="39" spans="1:27">
@@ -1420,7 +1429,7 @@
       </x:c>
       <x:c r="C39" s="5"/>
       <x:c r="D39" s="7">
-        <x:v>72403.02</x:v>
+        <x:v>10453.18</x:v>
       </x:c>
     </x:row>
     <x:row r="40" spans="1:27">
@@ -1429,7 +1438,7 @@
       </x:c>
       <x:c r="C40" s="5"/>
       <x:c r="D40" s="7">
-        <x:v>94300.88</x:v>
+        <x:v>72403.02</x:v>
       </x:c>
     </x:row>
     <x:row r="41" spans="1:27">
@@ -1438,7 +1447,7 @@
       </x:c>
       <x:c r="C41" s="5"/>
       <x:c r="D41" s="7">
-        <x:v>48625.09</x:v>
+        <x:v>94300.88</x:v>
       </x:c>
     </x:row>
     <x:row r="42" spans="1:27">
@@ -1447,7 +1456,7 @@
       </x:c>
       <x:c r="C42" s="5"/>
       <x:c r="D42" s="7">
-        <x:v>2007.55</x:v>
+        <x:v>48625.09</x:v>
       </x:c>
     </x:row>
     <x:row r="43" spans="1:27">
@@ -1456,7 +1465,7 @@
       </x:c>
       <x:c r="C43" s="5"/>
       <x:c r="D43" s="7">
-        <x:v>808.2</x:v>
+        <x:v>2007.55</x:v>
       </x:c>
     </x:row>
     <x:row r="44" spans="1:27">
@@ -1465,7 +1474,7 @@
       </x:c>
       <x:c r="C44" s="5"/>
       <x:c r="D44" s="7">
-        <x:v>25520.32</x:v>
+        <x:v>808.2</x:v>
       </x:c>
     </x:row>
     <x:row r="45" spans="1:27">
@@ -1474,7 +1483,7 @@
       </x:c>
       <x:c r="C45" s="5"/>
       <x:c r="D45" s="7">
-        <x:v>966.72</x:v>
+        <x:v>25520.32</x:v>
       </x:c>
     </x:row>
     <x:row r="46" spans="1:27">
@@ -1483,7 +1492,7 @@
       </x:c>
       <x:c r="C46" s="5"/>
       <x:c r="D46" s="7">
-        <x:v>0</x:v>
+        <x:v>966.72</x:v>
       </x:c>
     </x:row>
     <x:row r="47" spans="1:27">
@@ -1492,7 +1501,7 @@
       </x:c>
       <x:c r="C47" s="5"/>
       <x:c r="D47" s="7">
-        <x:v>7621.99</x:v>
+        <x:v>0</x:v>
       </x:c>
     </x:row>
     <x:row r="48" spans="1:27">
@@ -1501,7 +1510,7 @@
       </x:c>
       <x:c r="C48" s="5"/>
       <x:c r="D48" s="7">
-        <x:v>0</x:v>
+        <x:v>7621.99</x:v>
       </x:c>
     </x:row>
     <x:row r="49" spans="1:27">
@@ -1510,7 +1519,7 @@
       </x:c>
       <x:c r="C49" s="5"/>
       <x:c r="D49" s="7">
-        <x:v>500</x:v>
+        <x:v>0</x:v>
       </x:c>
     </x:row>
     <x:row r="50" spans="1:27">
@@ -1519,7 +1528,7 @@
       </x:c>
       <x:c r="C50" s="5"/>
       <x:c r="D50" s="7">
-        <x:v>95815.28</x:v>
+        <x:v>500</x:v>
       </x:c>
     </x:row>
     <x:row r="51" spans="1:27">
@@ -1528,7 +1537,7 @@
       </x:c>
       <x:c r="C51" s="5"/>
       <x:c r="D51" s="7">
-        <x:v>0</x:v>
+        <x:v>95815.28</x:v>
       </x:c>
     </x:row>
     <x:row r="52" spans="1:27">
@@ -1546,7 +1555,7 @@
       </x:c>
       <x:c r="C53" s="5"/>
       <x:c r="D53" s="7">
-        <x:v>900</x:v>
+        <x:v>0</x:v>
       </x:c>
     </x:row>
     <x:row r="54" spans="1:27">
@@ -1555,7 +1564,7 @@
       </x:c>
       <x:c r="C54" s="5"/>
       <x:c r="D54" s="7">
-        <x:v>121.68</x:v>
+        <x:v>900</x:v>
       </x:c>
     </x:row>
     <x:row r="55" spans="1:27">
@@ -1564,7 +1573,7 @@
       </x:c>
       <x:c r="C55" s="5"/>
       <x:c r="D55" s="7">
-        <x:v>287.64</x:v>
+        <x:v>121.68</x:v>
       </x:c>
     </x:row>
     <x:row r="56" spans="1:27">
@@ -1573,7 +1582,7 @@
       </x:c>
       <x:c r="C56" s="5"/>
       <x:c r="D56" s="7">
-        <x:v>893.65</x:v>
+        <x:v>287.64</x:v>
       </x:c>
     </x:row>
     <x:row r="57" spans="1:27">
@@ -1582,7 +1591,7 @@
       </x:c>
       <x:c r="C57" s="5"/>
       <x:c r="D57" s="7">
-        <x:v>4775</x:v>
+        <x:v>893.65</x:v>
       </x:c>
     </x:row>
     <x:row r="58" spans="1:27">
@@ -1591,7 +1600,7 @@
       </x:c>
       <x:c r="C58" s="5"/>
       <x:c r="D58" s="7">
-        <x:v>0</x:v>
+        <x:v>4775</x:v>
       </x:c>
     </x:row>
     <x:row r="59" spans="1:27">
@@ -1622,44 +1631,44 @@
       </x:c>
     </x:row>
     <x:row r="62" spans="1:27">
-      <x:c r="C62" s="4" t="s">
+      <x:c r="B62" s="5" t="s">
+        <x:v>70</x:v>
+      </x:c>
+      <x:c r="C62" s="5"/>
+      <x:c r="D62" s="7">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="63" spans="1:27">
+      <x:c r="C63" s="4" t="s">
         <x:v>39</x:v>
       </x:c>
-      <x:c r="D62" s="11">
-        <x:f>SUM(D38:D61)</x:f>
-      </x:c>
-    </x:row>
-    <x:row r="64" spans="1:27">
-      <x:c r="A64" s="13"/>
-      <x:c r="B64" s="13"/>
-      <x:c r="C64" s="13"/>
-      <x:c r="D64" s="13"/>
-      <x:c r="E64" s="13"/>
-      <x:c r="F64" s="13"/>
-      <x:c r="G64" s="13"/>
-      <x:c r="H64" s="13"/>
-    </x:row>
-    <x:row r="66" spans="1:27">
-      <x:c r="B66" s="4" t="s">
-        <x:v>70</x:v>
-      </x:c>
+      <x:c r="D63" s="11">
+        <x:f>SUM(D39:D62)</x:f>
+      </x:c>
+    </x:row>
+    <x:row r="65" spans="1:27">
+      <x:c r="A65" s="13"/>
+      <x:c r="B65" s="13"/>
+      <x:c r="C65" s="13"/>
+      <x:c r="D65" s="13"/>
+      <x:c r="E65" s="13"/>
+      <x:c r="F65" s="13"/>
+      <x:c r="G65" s="13"/>
+      <x:c r="H65" s="13"/>
     </x:row>
     <x:row r="67" spans="1:27">
-      <x:c r="B67" s="5" t="s">
-        <x:v>51</x:v>
-      </x:c>
-      <x:c r="C67" s="5"/>
-      <x:c r="D67" s="7">
-        <x:v>808.2</x:v>
+      <x:c r="B67" s="4" t="s">
+        <x:v>71</x:v>
       </x:c>
     </x:row>
     <x:row r="68" spans="1:27">
       <x:c r="B68" s="5" t="s">
-        <x:v>48</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="C68" s="5"/>
       <x:c r="D68" s="7">
-        <x:v>94300.88</x:v>
+        <x:v>808.2</x:v>
       </x:c>
     </x:row>
     <x:row r="69" spans="1:27">
@@ -1668,16 +1677,16 @@
       </x:c>
       <x:c r="C69" s="5"/>
       <x:c r="D69" s="7">
-        <x:v>48625.09</x:v>
+        <x:v>94300.88</x:v>
       </x:c>
     </x:row>
     <x:row r="70" spans="1:27">
       <x:c r="B70" s="5" t="s">
-        <x:v>46</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="C70" s="5"/>
       <x:c r="D70" s="7">
-        <x:v>10453.18</x:v>
+        <x:v>48625.09</x:v>
       </x:c>
     </x:row>
     <x:row r="71" spans="1:27">
@@ -1686,43 +1695,43 @@
       </x:c>
       <x:c r="C71" s="5"/>
       <x:c r="D71" s="7">
-        <x:v>72403.02</x:v>
+        <x:v>10453.18</x:v>
       </x:c>
     </x:row>
     <x:row r="72" spans="1:27">
       <x:c r="B72" s="5" t="s">
-        <x:v>50</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="C72" s="5"/>
       <x:c r="D72" s="7">
-        <x:v>2007.55</x:v>
+        <x:v>72403.02</x:v>
       </x:c>
     </x:row>
     <x:row r="73" spans="1:27">
       <x:c r="B73" s="5" t="s">
-        <x:v>52</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="C73" s="5"/>
       <x:c r="D73" s="7">
-        <x:v>25520.32</x:v>
+        <x:v>2007.55</x:v>
       </x:c>
     </x:row>
     <x:row r="74" spans="1:27">
       <x:c r="B74" s="5" t="s">
-        <x:v>58</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="C74" s="5"/>
       <x:c r="D74" s="7">
-        <x:v>95815.28</x:v>
+        <x:v>25520.32</x:v>
       </x:c>
     </x:row>
     <x:row r="75" spans="1:27">
       <x:c r="B75" s="5" t="s">
-        <x:v>62</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="C75" s="5"/>
       <x:c r="D75" s="7">
-        <x:v>121.68</x:v>
+        <x:v>95815.28</x:v>
       </x:c>
     </x:row>
     <x:row r="76" spans="1:27">
@@ -1731,43 +1740,43 @@
       </x:c>
       <x:c r="C76" s="5"/>
       <x:c r="D76" s="7">
-        <x:v>287.64</x:v>
+        <x:v>121.68</x:v>
       </x:c>
     </x:row>
     <x:row r="77" spans="1:27">
       <x:c r="B77" s="5" t="s">
-        <x:v>55</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="C77" s="5"/>
       <x:c r="D77" s="7">
-        <x:v>7621.99</x:v>
+        <x:v>287.64</x:v>
       </x:c>
     </x:row>
     <x:row r="78" spans="1:27">
       <x:c r="B78" s="5" t="s">
-        <x:v>57</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="C78" s="5"/>
       <x:c r="D78" s="7">
-        <x:v>500</x:v>
+        <x:v>7621.99</x:v>
       </x:c>
     </x:row>
     <x:row r="79" spans="1:27">
       <x:c r="B79" s="5" t="s">
-        <x:v>53</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="C79" s="5"/>
       <x:c r="D79" s="7">
-        <x:v>966.72</x:v>
+        <x:v>500</x:v>
       </x:c>
     </x:row>
     <x:row r="80" spans="1:27">
       <x:c r="B80" s="5" t="s">
-        <x:v>64</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="C80" s="5"/>
       <x:c r="D80" s="7">
-        <x:v>893.65</x:v>
+        <x:v>966.72</x:v>
       </x:c>
     </x:row>
     <x:row r="81" spans="1:27">
@@ -1776,160 +1785,134 @@
       </x:c>
       <x:c r="C81" s="5"/>
       <x:c r="D81" s="7">
-        <x:v>4775</x:v>
+        <x:v>893.65</x:v>
       </x:c>
     </x:row>
     <x:row r="82" spans="1:27">
       <x:c r="B82" s="5" t="s">
-        <x:v>61</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="C82" s="5"/>
       <x:c r="D82" s="7">
-        <x:v>900</x:v>
+        <x:v>4775</x:v>
       </x:c>
     </x:row>
     <x:row r="83" spans="1:27">
       <x:c r="B83" s="5" t="s">
-        <x:v>54</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="C83" s="5"/>
       <x:c r="D83" s="7">
+        <x:v>900</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="84" spans="1:27">
+      <x:c r="B84" s="5" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="C84" s="5"/>
+      <x:c r="D84" s="7">
         <x:v>0</x:v>
       </x:c>
     </x:row>
-    <x:row r="84" spans="1:27">
-      <x:c r="C84" s="4" t="s">
+    <x:row r="85" spans="1:27">
+      <x:c r="C85" s="4" t="s">
         <x:v>39</x:v>
       </x:c>
-      <x:c r="D84" s="11">
-        <x:f>SUM(D67:D83)</x:f>
-      </x:c>
-    </x:row>
-    <x:row r="86" spans="1:27">
-      <x:c r="A86" s="13"/>
-      <x:c r="B86" s="13"/>
-      <x:c r="C86" s="13"/>
-      <x:c r="D86" s="13"/>
-      <x:c r="E86" s="13"/>
-      <x:c r="F86" s="13"/>
-      <x:c r="G86" s="13"/>
-      <x:c r="H86" s="13"/>
-    </x:row>
-    <x:row r="88" spans="1:27">
-      <x:c r="C88" s="4" t="s">
-        <x:v>46</x:v>
-      </x:c>
-      <x:c r="D88" s="4" t="s">
+      <x:c r="D85" s="11">
+        <x:f>SUM(D68:D84)</x:f>
+      </x:c>
+    </x:row>
+    <x:row r="87" spans="1:27">
+      <x:c r="A87" s="13"/>
+      <x:c r="B87" s="13"/>
+      <x:c r="C87" s="13"/>
+      <x:c r="D87" s="13"/>
+      <x:c r="E87" s="13"/>
+      <x:c r="F87" s="13"/>
+      <x:c r="G87" s="13"/>
+      <x:c r="H87" s="13"/>
+    </x:row>
+    <x:row r="89" spans="1:27">
+      <x:c r="C89" s="4" t="s">
         <x:v>47</x:v>
       </x:c>
-      <x:c r="E88" s="4" t="s">
+      <x:c r="D89" s="4" t="s">
         <x:v>48</x:v>
       </x:c>
-      <x:c r="F88" s="4" t="s">
+      <x:c r="E89" s="4" t="s">
         <x:v>49</x:v>
       </x:c>
-      <x:c r="G88" s="4" t="s">
+      <x:c r="F89" s="4" t="s">
         <x:v>50</x:v>
       </x:c>
-      <x:c r="H88" s="4" t="s">
+      <x:c r="G89" s="4" t="s">
         <x:v>51</x:v>
       </x:c>
-      <x:c r="I88" s="4" t="s">
+      <x:c r="H89" s="4" t="s">
         <x:v>52</x:v>
       </x:c>
-      <x:c r="J88" s="4" t="s">
+      <x:c r="I89" s="4" t="s">
         <x:v>53</x:v>
       </x:c>
-      <x:c r="K88" s="4" t="s">
+      <x:c r="J89" s="4" t="s">
         <x:v>54</x:v>
       </x:c>
-      <x:c r="L88" s="4" t="s">
+      <x:c r="K89" s="4" t="s">
         <x:v>55</x:v>
       </x:c>
-      <x:c r="M88" s="4" t="s">
+      <x:c r="L89" s="4" t="s">
         <x:v>56</x:v>
       </x:c>
-      <x:c r="N88" s="4" t="s">
+      <x:c r="M89" s="4" t="s">
         <x:v>57</x:v>
       </x:c>
-      <x:c r="O88" s="4" t="s">
+      <x:c r="N89" s="4" t="s">
         <x:v>58</x:v>
       </x:c>
-      <x:c r="P88" s="4" t="s">
+      <x:c r="O89" s="4" t="s">
         <x:v>59</x:v>
       </x:c>
-      <x:c r="Q88" s="4" t="s">
+      <x:c r="P89" s="4" t="s">
         <x:v>60</x:v>
       </x:c>
-      <x:c r="R88" s="4" t="s">
+      <x:c r="Q89" s="4" t="s">
         <x:v>61</x:v>
       </x:c>
-      <x:c r="S88" s="4" t="s">
+      <x:c r="R89" s="4" t="s">
         <x:v>62</x:v>
       </x:c>
-      <x:c r="T88" s="4" t="s">
+      <x:c r="S89" s="4" t="s">
         <x:v>63</x:v>
       </x:c>
-      <x:c r="U88" s="4" t="s">
+      <x:c r="T89" s="4" t="s">
         <x:v>64</x:v>
       </x:c>
-      <x:c r="V88" s="4" t="s">
+      <x:c r="U89" s="4" t="s">
         <x:v>65</x:v>
       </x:c>
-      <x:c r="W88" s="4" t="s">
+      <x:c r="V89" s="4" t="s">
         <x:v>66</x:v>
       </x:c>
-      <x:c r="X88" s="4" t="s">
+      <x:c r="W89" s="4" t="s">
         <x:v>67</x:v>
       </x:c>
-      <x:c r="Y88" s="4" t="s">
+      <x:c r="X89" s="4" t="s">
         <x:v>68</x:v>
       </x:c>
-      <x:c r="Z88" s="4" t="s">
+      <x:c r="Y89" s="4" t="s">
         <x:v>69</x:v>
       </x:c>
-    </x:row>
-    <x:row r="89" spans="1:27">
-      <x:c r="A89" s="5" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="B89" s="5" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="C89" s="5"/>
-      <x:c r="D89" s="5"/>
-      <x:c r="E89" s="5"/>
-      <x:c r="F89" s="5"/>
-      <x:c r="G89" s="5"/>
-      <x:c r="H89" s="5"/>
-      <x:c r="I89" s="5"/>
-      <x:c r="J89" s="5"/>
-      <x:c r="K89" s="5"/>
-      <x:c r="L89" s="5"/>
-      <x:c r="M89" s="5"/>
-      <x:c r="N89" s="5"/>
-      <x:c r="O89" s="5"/>
-      <x:c r="P89" s="5"/>
-      <x:c r="Q89" s="5"/>
-      <x:c r="R89" s="5"/>
-      <x:c r="S89" s="5"/>
-      <x:c r="T89" s="5"/>
-      <x:c r="U89" s="5"/>
-      <x:c r="V89" s="5"/>
-      <x:c r="W89" s="5"/>
-      <x:c r="X89" s="5"/>
-      <x:c r="Y89" s="5"/>
-      <x:c r="Z89" s="5"/>
-      <x:c r="AA89" s="14">
-        <x:f>SUM(C89:Z89)</x:f>
+      <x:c r="Z89" s="4" t="s">
+        <x:v>70</x:v>
       </x:c>
     </x:row>
     <x:row r="90" spans="1:27">
       <x:c r="A90" s="5" t="s">
-        <x:v>71</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="B90" s="5" t="s">
-        <x:v>72</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C90" s="5"/>
       <x:c r="D90" s="5"/>
@@ -1961,19 +1944,17 @@
     </x:row>
     <x:row r="91" spans="1:27">
       <x:c r="A91" s="5" t="s">
-        <x:v>11</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="B91" s="5" t="s">
-        <x:v>12</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="C91" s="5"/>
       <x:c r="D91" s="5"/>
       <x:c r="E91" s="5"/>
       <x:c r="F91" s="5"/>
       <x:c r="G91" s="5"/>
-      <x:c r="H91" s="7">
-        <x:v>808.2</x:v>
-      </x:c>
+      <x:c r="H91" s="5"/>
       <x:c r="I91" s="5"/>
       <x:c r="J91" s="5"/>
       <x:c r="K91" s="5"/>
@@ -1998,17 +1979,19 @@
     </x:row>
     <x:row r="92" spans="1:27">
       <x:c r="A92" s="5" t="s">
-        <x:v>73</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="B92" s="5" t="s">
-        <x:v>74</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="C92" s="5"/>
       <x:c r="D92" s="5"/>
       <x:c r="E92" s="5"/>
       <x:c r="F92" s="5"/>
       <x:c r="G92" s="5"/>
-      <x:c r="H92" s="5"/>
+      <x:c r="H92" s="7">
+        <x:v>808.2</x:v>
+      </x:c>
       <x:c r="I92" s="5"/>
       <x:c r="J92" s="5"/>
       <x:c r="K92" s="5"/>
@@ -2033,10 +2016,10 @@
     </x:row>
     <x:row r="93" spans="1:27">
       <x:c r="A93" s="5" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="B93" s="5" t="s">
         <x:v>75</x:v>
-      </x:c>
-      <x:c r="B93" s="5" t="s">
-        <x:v>76</x:v>
       </x:c>
       <x:c r="C93" s="5"/>
       <x:c r="D93" s="5"/>
@@ -2068,10 +2051,10 @@
     </x:row>
     <x:row r="94" spans="1:27">
       <x:c r="A94" s="5" t="s">
+        <x:v>76</x:v>
+      </x:c>
+      <x:c r="B94" s="5" t="s">
         <x:v>77</x:v>
-      </x:c>
-      <x:c r="B94" s="5" t="s">
-        <x:v>78</x:v>
       </x:c>
       <x:c r="C94" s="5"/>
       <x:c r="D94" s="5"/>
@@ -2103,10 +2086,10 @@
     </x:row>
     <x:row r="95" spans="1:27">
       <x:c r="A95" s="5" t="s">
-        <x:v>13</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="B95" s="5" t="s">
-        <x:v>14</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="C95" s="5"/>
       <x:c r="D95" s="5"/>
@@ -2138,10 +2121,10 @@
     </x:row>
     <x:row r="96" spans="1:27">
       <x:c r="A96" s="5" t="s">
-        <x:v>79</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="B96" s="5" t="s">
-        <x:v>80</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C96" s="5"/>
       <x:c r="D96" s="5"/>
@@ -2173,23 +2156,15 @@
     </x:row>
     <x:row r="97" spans="1:27">
       <x:c r="A97" s="5" t="s">
-        <x:v>15</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="B97" s="5" t="s">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="C97" s="7">
-        <x:v>4390.84</x:v>
-      </x:c>
-      <x:c r="D97" s="7">
-        <x:v>2136.55</x:v>
-      </x:c>
-      <x:c r="E97" s="7">
-        <x:v>20342.42</x:v>
-      </x:c>
-      <x:c r="F97" s="7">
-        <x:v>27262.72</x:v>
-      </x:c>
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="C97" s="5"/>
+      <x:c r="D97" s="5"/>
+      <x:c r="E97" s="5"/>
+      <x:c r="F97" s="5"/>
       <x:c r="G97" s="5"/>
       <x:c r="H97" s="5"/>
       <x:c r="I97" s="5"/>
@@ -2216,18 +2191,24 @@
     </x:row>
     <x:row r="98" spans="1:27">
       <x:c r="A98" s="5" t="s">
-        <x:v>17</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="B98" s="5" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="C98" s="5"/>
-      <x:c r="D98" s="5"/>
-      <x:c r="E98" s="5"/>
-      <x:c r="F98" s="5"/>
-      <x:c r="G98" s="7">
-        <x:v>371.37</x:v>
-      </x:c>
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="C98" s="7">
+        <x:v>4390.84</x:v>
+      </x:c>
+      <x:c r="D98" s="7">
+        <x:v>2136.55</x:v>
+      </x:c>
+      <x:c r="E98" s="7">
+        <x:v>20342.42</x:v>
+      </x:c>
+      <x:c r="F98" s="7">
+        <x:v>27262.72</x:v>
+      </x:c>
+      <x:c r="G98" s="5"/>
       <x:c r="H98" s="5"/>
       <x:c r="I98" s="5"/>
       <x:c r="J98" s="5"/>
@@ -2253,16 +2234,18 @@
     </x:row>
     <x:row r="99" spans="1:27">
       <x:c r="A99" s="5" t="s">
-        <x:v>19</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="B99" s="5" t="s">
-        <x:v>20</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="C99" s="5"/>
       <x:c r="D99" s="5"/>
       <x:c r="E99" s="5"/>
       <x:c r="F99" s="5"/>
-      <x:c r="G99" s="5"/>
+      <x:c r="G99" s="7">
+        <x:v>371.37</x:v>
+      </x:c>
       <x:c r="H99" s="5"/>
       <x:c r="I99" s="5"/>
       <x:c r="J99" s="5"/>
@@ -2288,21 +2271,15 @@
     </x:row>
     <x:row r="100" spans="1:27">
       <x:c r="A100" s="5" t="s">
-        <x:v>21</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="B100" s="5" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="C100" s="7">
-        <x:v>186</x:v>
-      </x:c>
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="C100" s="5"/>
       <x:c r="D100" s="5"/>
-      <x:c r="E100" s="7">
-        <x:v>897.73</x:v>
-      </x:c>
-      <x:c r="F100" s="7">
-        <x:v>1152.64</x:v>
-      </x:c>
+      <x:c r="E100" s="5"/>
+      <x:c r="F100" s="5"/>
       <x:c r="G100" s="5"/>
       <x:c r="H100" s="5"/>
       <x:c r="I100" s="5"/>
@@ -2329,30 +2306,24 @@
     </x:row>
     <x:row r="101" spans="1:27">
       <x:c r="A101" s="5" t="s">
-        <x:v>23</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="B101" s="5" t="s">
-        <x:v>24</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="C101" s="7">
-        <x:v>516.42</x:v>
-      </x:c>
-      <x:c r="D101" s="7">
-        <x:v>456.84</x:v>
-      </x:c>
+        <x:v>186</x:v>
+      </x:c>
+      <x:c r="D101" s="5"/>
       <x:c r="E101" s="7">
-        <x:v>1380.93</x:v>
+        <x:v>897.73</x:v>
       </x:c>
       <x:c r="F101" s="7">
-        <x:v>3257.14</x:v>
-      </x:c>
-      <x:c r="G101" s="7">
-        <x:v>659.68</x:v>
-      </x:c>
+        <x:v>1152.64</x:v>
+      </x:c>
+      <x:c r="G101" s="5"/>
       <x:c r="H101" s="5"/>
-      <x:c r="I101" s="7">
-        <x:v>1268.42</x:v>
-      </x:c>
+      <x:c r="I101" s="5"/>
       <x:c r="J101" s="5"/>
       <x:c r="K101" s="5"/>
       <x:c r="L101" s="5"/>
@@ -2376,59 +2347,43 @@
     </x:row>
     <x:row r="102" spans="1:27">
       <x:c r="A102" s="5" t="s">
-        <x:v>25</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="B102" s="5" t="s">
-        <x:v>26</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="C102" s="7">
-        <x:v>3551.21</x:v>
+        <x:v>516.42</x:v>
       </x:c>
       <x:c r="D102" s="7">
-        <x:v>7000.55</x:v>
+        <x:v>456.84</x:v>
       </x:c>
       <x:c r="E102" s="7">
-        <x:v>6263.64</x:v>
+        <x:v>1380.93</x:v>
       </x:c>
       <x:c r="F102" s="7">
-        <x:v>10464.04</x:v>
-      </x:c>
-      <x:c r="G102" s="5"/>
+        <x:v>3257.14</x:v>
+      </x:c>
+      <x:c r="G102" s="7">
+        <x:v>659.68</x:v>
+      </x:c>
       <x:c r="H102" s="5"/>
       <x:c r="I102" s="7">
-        <x:v>10036.74</x:v>
-      </x:c>
-      <x:c r="J102" s="7">
-        <x:v>436.32</x:v>
-      </x:c>
+        <x:v>1268.42</x:v>
+      </x:c>
+      <x:c r="J102" s="5"/>
       <x:c r="K102" s="5"/>
-      <x:c r="L102" s="7">
-        <x:v>3832.83</x:v>
-      </x:c>
+      <x:c r="L102" s="5"/>
       <x:c r="M102" s="5"/>
-      <x:c r="N102" s="7">
-        <x:v>500</x:v>
-      </x:c>
-      <x:c r="O102" s="7">
-        <x:v>2096.14</x:v>
-      </x:c>
+      <x:c r="N102" s="5"/>
+      <x:c r="O102" s="5"/>
       <x:c r="P102" s="5"/>
       <x:c r="Q102" s="5"/>
-      <x:c r="R102" s="7">
-        <x:v>900</x:v>
-      </x:c>
-      <x:c r="S102" s="7">
-        <x:v>121.68</x:v>
-      </x:c>
-      <x:c r="T102" s="7">
-        <x:v>287.64</x:v>
-      </x:c>
-      <x:c r="U102" s="7">
-        <x:v>893.65</x:v>
-      </x:c>
-      <x:c r="V102" s="7">
-        <x:v>4775</x:v>
-      </x:c>
+      <x:c r="R102" s="5"/>
+      <x:c r="S102" s="5"/>
+      <x:c r="T102" s="5"/>
+      <x:c r="U102" s="5"/>
+      <x:c r="V102" s="5"/>
       <x:c r="W102" s="5"/>
       <x:c r="X102" s="5"/>
       <x:c r="Y102" s="5"/>
@@ -2439,31 +2394,59 @@
     </x:row>
     <x:row r="103" spans="1:27">
       <x:c r="A103" s="5" t="s">
-        <x:v>81</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="B103" s="5" t="s">
-        <x:v>82</x:v>
-      </x:c>
-      <x:c r="C103" s="5"/>
-      <x:c r="D103" s="5"/>
-      <x:c r="E103" s="5"/>
-      <x:c r="F103" s="5"/>
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="C103" s="7">
+        <x:v>3551.21</x:v>
+      </x:c>
+      <x:c r="D103" s="7">
+        <x:v>7000.55</x:v>
+      </x:c>
+      <x:c r="E103" s="7">
+        <x:v>6263.64</x:v>
+      </x:c>
+      <x:c r="F103" s="7">
+        <x:v>10464.04</x:v>
+      </x:c>
       <x:c r="G103" s="5"/>
       <x:c r="H103" s="5"/>
-      <x:c r="I103" s="5"/>
-      <x:c r="J103" s="5"/>
+      <x:c r="I103" s="7">
+        <x:v>10036.74</x:v>
+      </x:c>
+      <x:c r="J103" s="7">
+        <x:v>436.32</x:v>
+      </x:c>
       <x:c r="K103" s="5"/>
-      <x:c r="L103" s="5"/>
+      <x:c r="L103" s="7">
+        <x:v>3832.83</x:v>
+      </x:c>
       <x:c r="M103" s="5"/>
-      <x:c r="N103" s="5"/>
-      <x:c r="O103" s="5"/>
+      <x:c r="N103" s="7">
+        <x:v>500</x:v>
+      </x:c>
+      <x:c r="O103" s="7">
+        <x:v>2096.14</x:v>
+      </x:c>
       <x:c r="P103" s="5"/>
       <x:c r="Q103" s="5"/>
-      <x:c r="R103" s="5"/>
-      <x:c r="S103" s="5"/>
-      <x:c r="T103" s="5"/>
-      <x:c r="U103" s="5"/>
-      <x:c r="V103" s="5"/>
+      <x:c r="R103" s="7">
+        <x:v>900</x:v>
+      </x:c>
+      <x:c r="S103" s="7">
+        <x:v>121.68</x:v>
+      </x:c>
+      <x:c r="T103" s="7">
+        <x:v>287.64</x:v>
+      </x:c>
+      <x:c r="U103" s="7">
+        <x:v>893.65</x:v>
+      </x:c>
+      <x:c r="V103" s="7">
+        <x:v>4775</x:v>
+      </x:c>
       <x:c r="W103" s="5"/>
       <x:c r="X103" s="5"/>
       <x:c r="Y103" s="5"/>
@@ -2474,20 +2457,14 @@
     </x:row>
     <x:row r="104" spans="1:27">
       <x:c r="A104" s="5" t="s">
-        <x:v>27</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="B104" s="5" t="s">
-        <x:v>28</x:v>
-      </x:c>
-      <x:c r="C104" s="7">
-        <x:v>720.78</x:v>
-      </x:c>
-      <x:c r="D104" s="7">
-        <x:v>3255.65</x:v>
-      </x:c>
-      <x:c r="E104" s="7">
-        <x:v>1004.29</x:v>
-      </x:c>
+        <x:v>83</x:v>
+      </x:c>
+      <x:c r="C104" s="5"/>
+      <x:c r="D104" s="5"/>
+      <x:c r="E104" s="5"/>
       <x:c r="F104" s="5"/>
       <x:c r="G104" s="5"/>
       <x:c r="H104" s="5"/>
@@ -2515,14 +2492,20 @@
     </x:row>
     <x:row r="105" spans="1:27">
       <x:c r="A105" s="5" t="s">
-        <x:v>29</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="B105" s="5" t="s">
-        <x:v>30</x:v>
-      </x:c>
-      <x:c r="C105" s="5"/>
-      <x:c r="D105" s="5"/>
-      <x:c r="E105" s="5"/>
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="C105" s="7">
+        <x:v>720.78</x:v>
+      </x:c>
+      <x:c r="D105" s="7">
+        <x:v>3255.65</x:v>
+      </x:c>
+      <x:c r="E105" s="7">
+        <x:v>1004.29</x:v>
+      </x:c>
       <x:c r="F105" s="5"/>
       <x:c r="G105" s="5"/>
       <x:c r="H105" s="5"/>
@@ -2550,10 +2533,10 @@
     </x:row>
     <x:row r="106" spans="1:27">
       <x:c r="A106" s="5" t="s">
-        <x:v>83</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="B106" s="5" t="s">
-        <x:v>84</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C106" s="5"/>
       <x:c r="D106" s="5"/>
@@ -2563,9 +2546,7 @@
       <x:c r="H106" s="5"/>
       <x:c r="I106" s="5"/>
       <x:c r="J106" s="5"/>
-      <x:c r="K106" s="7">
-        <x:v>0</x:v>
-      </x:c>
+      <x:c r="K106" s="5"/>
       <x:c r="L106" s="5"/>
       <x:c r="M106" s="5"/>
       <x:c r="N106" s="5"/>
@@ -2587,30 +2568,22 @@
     </x:row>
     <x:row r="107" spans="1:27">
       <x:c r="A107" s="5" t="s">
-        <x:v>31</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="B107" s="5" t="s">
-        <x:v>32</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="C107" s="5"/>
-      <x:c r="D107" s="7">
-        <x:v>397.32</x:v>
-      </x:c>
-      <x:c r="E107" s="7">
-        <x:v>99.16</x:v>
-      </x:c>
+      <x:c r="D107" s="5"/>
+      <x:c r="E107" s="5"/>
       <x:c r="F107" s="5"/>
-      <x:c r="G107" s="7">
-        <x:v>976.5</x:v>
-      </x:c>
+      <x:c r="G107" s="5"/>
       <x:c r="H107" s="5"/>
-      <x:c r="I107" s="7">
-        <x:v>12016.01</x:v>
-      </x:c>
-      <x:c r="J107" s="7">
-        <x:v>280.8</x:v>
-      </x:c>
-      <x:c r="K107" s="5"/>
+      <x:c r="I107" s="5"/>
+      <x:c r="J107" s="5"/>
+      <x:c r="K107" s="7">
+        <x:v>0</x:v>
+      </x:c>
       <x:c r="L107" s="5"/>
       <x:c r="M107" s="5"/>
       <x:c r="N107" s="5"/>
@@ -2632,30 +2605,34 @@
     </x:row>
     <x:row r="108" spans="1:27">
       <x:c r="A108" s="5" t="s">
-        <x:v>33</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="B108" s="5" t="s">
-        <x:v>34</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="C108" s="5"/>
       <x:c r="D108" s="7">
-        <x:v>58553.7</x:v>
+        <x:v>397.32</x:v>
       </x:c>
       <x:c r="E108" s="7">
-        <x:v>60575.58</x:v>
+        <x:v>99.16</x:v>
       </x:c>
       <x:c r="F108" s="5"/>
-      <x:c r="G108" s="5"/>
+      <x:c r="G108" s="7">
+        <x:v>976.5</x:v>
+      </x:c>
       <x:c r="H108" s="5"/>
-      <x:c r="I108" s="5"/>
-      <x:c r="J108" s="5"/>
+      <x:c r="I108" s="7">
+        <x:v>12016.01</x:v>
+      </x:c>
+      <x:c r="J108" s="7">
+        <x:v>280.8</x:v>
+      </x:c>
       <x:c r="K108" s="5"/>
       <x:c r="L108" s="5"/>
       <x:c r="M108" s="5"/>
       <x:c r="N108" s="5"/>
-      <x:c r="O108" s="7">
-        <x:v>93719.14</x:v>
-      </x:c>
+      <x:c r="O108" s="5"/>
       <x:c r="P108" s="5"/>
       <x:c r="Q108" s="5"/>
       <x:c r="R108" s="5"/>
@@ -2673,14 +2650,18 @@
     </x:row>
     <x:row r="109" spans="1:27">
       <x:c r="A109" s="5" t="s">
-        <x:v>85</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="B109" s="5" t="s">
-        <x:v>86</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="C109" s="5"/>
-      <x:c r="D109" s="5"/>
-      <x:c r="E109" s="5"/>
+      <x:c r="D109" s="7">
+        <x:v>58553.7</x:v>
+      </x:c>
+      <x:c r="E109" s="7">
+        <x:v>60575.58</x:v>
+      </x:c>
       <x:c r="F109" s="5"/>
       <x:c r="G109" s="5"/>
       <x:c r="H109" s="5"/>
@@ -2690,7 +2671,9 @@
       <x:c r="L109" s="5"/>
       <x:c r="M109" s="5"/>
       <x:c r="N109" s="5"/>
-      <x:c r="O109" s="5"/>
+      <x:c r="O109" s="7">
+        <x:v>93719.14</x:v>
+      </x:c>
       <x:c r="P109" s="5"/>
       <x:c r="Q109" s="5"/>
       <x:c r="R109" s="5"/>
@@ -2708,21 +2691,15 @@
     </x:row>
     <x:row r="110" spans="1:27">
       <x:c r="A110" s="5" t="s">
-        <x:v>35</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="B110" s="5" t="s">
-        <x:v>36</x:v>
-      </x:c>
-      <x:c r="C110" s="7">
-        <x:v>537.21</x:v>
-      </x:c>
+        <x:v>87</x:v>
+      </x:c>
+      <x:c r="C110" s="5"/>
       <x:c r="D110" s="5"/>
-      <x:c r="E110" s="7">
-        <x:v>1393.95</x:v>
-      </x:c>
-      <x:c r="F110" s="7">
-        <x:v>3678.94</x:v>
-      </x:c>
+      <x:c r="E110" s="5"/>
+      <x:c r="F110" s="5"/>
       <x:c r="G110" s="5"/>
       <x:c r="H110" s="5"/>
       <x:c r="I110" s="5"/>
@@ -2749,35 +2726,27 @@
     </x:row>
     <x:row r="111" spans="1:27">
       <x:c r="A111" s="5" t="s">
-        <x:v>37</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="B111" s="5" t="s">
-        <x:v>38</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="C111" s="7">
-        <x:v>550.72</x:v>
-      </x:c>
-      <x:c r="D111" s="7">
-        <x:v>602.41</x:v>
-      </x:c>
+        <x:v>537.21</x:v>
+      </x:c>
+      <x:c r="D111" s="5"/>
       <x:c r="E111" s="7">
-        <x:v>2343.18</x:v>
+        <x:v>1393.95</x:v>
       </x:c>
       <x:c r="F111" s="7">
-        <x:v>2809.61</x:v>
+        <x:v>3678.94</x:v>
       </x:c>
       <x:c r="G111" s="5"/>
       <x:c r="H111" s="5"/>
-      <x:c r="I111" s="7">
-        <x:v>2199.15</x:v>
-      </x:c>
-      <x:c r="J111" s="7">
-        <x:v>249.6</x:v>
-      </x:c>
+      <x:c r="I111" s="5"/>
+      <x:c r="J111" s="5"/>
       <x:c r="K111" s="5"/>
-      <x:c r="L111" s="7">
-        <x:v>3789.16</x:v>
-      </x:c>
+      <x:c r="L111" s="5"/>
       <x:c r="M111" s="5"/>
       <x:c r="N111" s="5"/>
       <x:c r="O111" s="5"/>
@@ -2797,83 +2766,132 @@
       </x:c>
     </x:row>
     <x:row r="112" spans="1:27">
-      <x:c r="B112" s="4" t="s">
+      <x:c r="A112" s="5" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="B112" s="5" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="C112" s="7">
+        <x:v>550.72</x:v>
+      </x:c>
+      <x:c r="D112" s="7">
+        <x:v>602.41</x:v>
+      </x:c>
+      <x:c r="E112" s="7">
+        <x:v>2343.18</x:v>
+      </x:c>
+      <x:c r="F112" s="7">
+        <x:v>2809.61</x:v>
+      </x:c>
+      <x:c r="G112" s="5"/>
+      <x:c r="H112" s="5"/>
+      <x:c r="I112" s="7">
+        <x:v>2199.15</x:v>
+      </x:c>
+      <x:c r="J112" s="7">
+        <x:v>249.6</x:v>
+      </x:c>
+      <x:c r="K112" s="5"/>
+      <x:c r="L112" s="7">
+        <x:v>3789.16</x:v>
+      </x:c>
+      <x:c r="M112" s="5"/>
+      <x:c r="N112" s="5"/>
+      <x:c r="O112" s="5"/>
+      <x:c r="P112" s="5"/>
+      <x:c r="Q112" s="5"/>
+      <x:c r="R112" s="5"/>
+      <x:c r="S112" s="5"/>
+      <x:c r="T112" s="5"/>
+      <x:c r="U112" s="5"/>
+      <x:c r="V112" s="5"/>
+      <x:c r="W112" s="5"/>
+      <x:c r="X112" s="5"/>
+      <x:c r="Y112" s="5"/>
+      <x:c r="Z112" s="5"/>
+      <x:c r="AA112" s="14">
+        <x:f>SUM(C112:Z112)</x:f>
+      </x:c>
+    </x:row>
+    <x:row r="113" spans="1:27">
+      <x:c r="B113" s="4" t="s">
         <x:v>39</x:v>
       </x:c>
-      <x:c r="C112" s="15">
-        <x:f>SUM(C89:C111)</x:f>
-      </x:c>
-      <x:c r="D112" s="15">
-        <x:f>SUM(D89:D111)</x:f>
-      </x:c>
-      <x:c r="E112" s="15">
-        <x:f>SUM(E89:E111)</x:f>
-      </x:c>
-      <x:c r="F112" s="15">
-        <x:f>SUM(F89:F111)</x:f>
-      </x:c>
-      <x:c r="G112" s="15">
-        <x:f>SUM(G89:G111)</x:f>
-      </x:c>
-      <x:c r="H112" s="15">
-        <x:f>SUM(H89:H111)</x:f>
-      </x:c>
-      <x:c r="I112" s="15">
-        <x:f>SUM(I89:I111)</x:f>
-      </x:c>
-      <x:c r="J112" s="15">
-        <x:f>SUM(J89:J111)</x:f>
-      </x:c>
-      <x:c r="K112" s="15">
-        <x:f>SUM(K89:K111)</x:f>
-      </x:c>
-      <x:c r="L112" s="15">
-        <x:f>SUM(L89:L111)</x:f>
-      </x:c>
-      <x:c r="M112" s="15">
-        <x:f>SUM(M89:M111)</x:f>
-      </x:c>
-      <x:c r="N112" s="15">
-        <x:f>SUM(N89:N111)</x:f>
-      </x:c>
-      <x:c r="O112" s="15">
-        <x:f>SUM(O89:O111)</x:f>
-      </x:c>
-      <x:c r="P112" s="15">
-        <x:f>SUM(P89:P111)</x:f>
-      </x:c>
-      <x:c r="Q112" s="15">
-        <x:f>SUM(Q89:Q111)</x:f>
-      </x:c>
-      <x:c r="R112" s="15">
-        <x:f>SUM(R89:R111)</x:f>
-      </x:c>
-      <x:c r="S112" s="15">
-        <x:f>SUM(S89:S111)</x:f>
-      </x:c>
-      <x:c r="T112" s="15">
-        <x:f>SUM(T89:T111)</x:f>
-      </x:c>
-      <x:c r="U112" s="15">
-        <x:f>SUM(U89:U111)</x:f>
-      </x:c>
-      <x:c r="V112" s="15">
-        <x:f>SUM(V89:V111)</x:f>
-      </x:c>
-      <x:c r="W112" s="15">
-        <x:f>SUM(W89:W111)</x:f>
-      </x:c>
-      <x:c r="X112" s="15">
-        <x:f>SUM(X89:X111)</x:f>
-      </x:c>
-      <x:c r="Y112" s="15">
-        <x:f>SUM(Y89:Y111)</x:f>
-      </x:c>
-      <x:c r="Z112" s="15">
-        <x:f>SUM(Z89:Z111)</x:f>
-      </x:c>
-      <x:c r="AA112" s="16">
-        <x:f>SUM(AA89:AA111)</x:f>
+      <x:c r="C113" s="15">
+        <x:f>SUM(C90:C112)</x:f>
+      </x:c>
+      <x:c r="D113" s="15">
+        <x:f>SUM(D90:D112)</x:f>
+      </x:c>
+      <x:c r="E113" s="15">
+        <x:f>SUM(E90:E112)</x:f>
+      </x:c>
+      <x:c r="F113" s="15">
+        <x:f>SUM(F90:F112)</x:f>
+      </x:c>
+      <x:c r="G113" s="15">
+        <x:f>SUM(G90:G112)</x:f>
+      </x:c>
+      <x:c r="H113" s="15">
+        <x:f>SUM(H90:H112)</x:f>
+      </x:c>
+      <x:c r="I113" s="15">
+        <x:f>SUM(I90:I112)</x:f>
+      </x:c>
+      <x:c r="J113" s="15">
+        <x:f>SUM(J90:J112)</x:f>
+      </x:c>
+      <x:c r="K113" s="15">
+        <x:f>SUM(K90:K112)</x:f>
+      </x:c>
+      <x:c r="L113" s="15">
+        <x:f>SUM(L90:L112)</x:f>
+      </x:c>
+      <x:c r="M113" s="15">
+        <x:f>SUM(M90:M112)</x:f>
+      </x:c>
+      <x:c r="N113" s="15">
+        <x:f>SUM(N90:N112)</x:f>
+      </x:c>
+      <x:c r="O113" s="15">
+        <x:f>SUM(O90:O112)</x:f>
+      </x:c>
+      <x:c r="P113" s="15">
+        <x:f>SUM(P90:P112)</x:f>
+      </x:c>
+      <x:c r="Q113" s="15">
+        <x:f>SUM(Q90:Q112)</x:f>
+      </x:c>
+      <x:c r="R113" s="15">
+        <x:f>SUM(R90:R112)</x:f>
+      </x:c>
+      <x:c r="S113" s="15">
+        <x:f>SUM(S90:S112)</x:f>
+      </x:c>
+      <x:c r="T113" s="15">
+        <x:f>SUM(T90:T112)</x:f>
+      </x:c>
+      <x:c r="U113" s="15">
+        <x:f>SUM(U90:U112)</x:f>
+      </x:c>
+      <x:c r="V113" s="15">
+        <x:f>SUM(V90:V112)</x:f>
+      </x:c>
+      <x:c r="W113" s="15">
+        <x:f>SUM(W90:W112)</x:f>
+      </x:c>
+      <x:c r="X113" s="15">
+        <x:f>SUM(X90:X112)</x:f>
+      </x:c>
+      <x:c r="Y113" s="15">
+        <x:f>SUM(Y90:Y112)</x:f>
+      </x:c>
+      <x:c r="Z113" s="15">
+        <x:f>SUM(Z90:Z112)</x:f>
+      </x:c>
+      <x:c r="AA113" s="16">
+        <x:f>SUM(AA90:AA112)</x:f>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/Provvigioni_Agenti/bin/Debug/excelAgenti/2025-TRIM-1--BCD RAPPRESENTANZE.xlsx
+++ b/Provvigioni_Agenti/bin/Debug/excelAgenti/2025-TRIM-1--BCD RAPPRESENTANZE.xlsx
@@ -160,12 +160,12 @@
     <x:t>MORSETTI FTV</x:t>
   </x:si>
   <x:si>
+    <x:t>ACCESSORI FTV CONTACT</x:t>
+  </x:si>
+  <x:si>
     <x:t>PROFILI</x:t>
   </x:si>
   <x:si>
-    <x:t>ACCESSORI FTV CONTACT</x:t>
-  </x:si>
-  <x:si>
     <x:t>ZAVORRE CONTACT</x:t>
   </x:si>
   <x:si>
@@ -220,10 +220,10 @@
     <x:t>Q.INTERF. FUORI STANDARD</x:t>
   </x:si>
   <x:si>
+    <x:t>PULL-OUT TEST</x:t>
+  </x:si>
+  <x:si>
     <x:t>TRACKER STANDARD</x:t>
-  </x:si>
-  <x:si>
-    <x:t>PULL-OUT TEST</x:t>
   </x:si>
   <x:si>
     <x:t>RELAZIONE ZAVORRE</x:t>
@@ -1146,7 +1146,7 @@
         <x:v>2354.31</x:v>
       </x:c>
       <x:c r="F18" s="10">
-        <x:v>0.896398505945379</x:v>
+        <x:v>0.896398505945378</x:v>
       </x:c>
       <x:c r="G18" s="5"/>
       <x:c r="H18" s="7">
@@ -1263,10 +1263,10 @@
         <x:v>12543.83</x:v>
       </x:c>
       <x:c r="E23" s="8">
-        <x:v>-1261.58</x:v>
+        <x:v>-1261.58000000001</x:v>
       </x:c>
       <x:c r="F23" s="9">
-        <x:v>-0.0913830157887382</x:v>
+        <x:v>-0.0913830157887384</x:v>
       </x:c>
       <x:c r="G23" s="5"/>
       <x:c r="H23" s="7">
@@ -1438,7 +1438,7 @@
       </x:c>
       <x:c r="C40" s="5"/>
       <x:c r="D40" s="7">
-        <x:v>72403.02</x:v>
+        <x:v>94300.88</x:v>
       </x:c>
     </x:row>
     <x:row r="41" spans="1:27">
@@ -1447,7 +1447,7 @@
       </x:c>
       <x:c r="C41" s="5"/>
       <x:c r="D41" s="7">
-        <x:v>94300.88</x:v>
+        <x:v>72403.02</x:v>
       </x:c>
     </x:row>
     <x:row r="42" spans="1:27">
@@ -1673,7 +1673,7 @@
     </x:row>
     <x:row r="69" spans="1:27">
       <x:c r="B69" s="5" t="s">
-        <x:v>49</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="C69" s="5"/>
       <x:c r="D69" s="7">
@@ -1682,29 +1682,29 @@
     </x:row>
     <x:row r="70" spans="1:27">
       <x:c r="B70" s="5" t="s">
-        <x:v>50</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="C70" s="5"/>
       <x:c r="D70" s="7">
-        <x:v>48625.09</x:v>
+        <x:v>10453.18</x:v>
       </x:c>
     </x:row>
     <x:row r="71" spans="1:27">
       <x:c r="B71" s="5" t="s">
-        <x:v>47</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="C71" s="5"/>
       <x:c r="D71" s="7">
-        <x:v>10453.18</x:v>
+        <x:v>72403.02</x:v>
       </x:c>
     </x:row>
     <x:row r="72" spans="1:27">
       <x:c r="B72" s="5" t="s">
-        <x:v>48</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="C72" s="5"/>
       <x:c r="D72" s="7">
-        <x:v>72403.02</x:v>
+        <x:v>48625.09</x:v>
       </x:c>
     </x:row>
     <x:row r="73" spans="1:27">
@@ -1763,47 +1763,47 @@
     </x:row>
     <x:row r="79" spans="1:27">
       <x:c r="B79" s="5" t="s">
-        <x:v>58</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="C79" s="5"/>
       <x:c r="D79" s="7">
-        <x:v>500</x:v>
+        <x:v>893.65</x:v>
       </x:c>
     </x:row>
     <x:row r="80" spans="1:27">
       <x:c r="B80" s="5" t="s">
-        <x:v>54</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="C80" s="5"/>
       <x:c r="D80" s="7">
-        <x:v>966.72</x:v>
+        <x:v>500</x:v>
       </x:c>
     </x:row>
     <x:row r="81" spans="1:27">
       <x:c r="B81" s="5" t="s">
-        <x:v>65</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="C81" s="5"/>
       <x:c r="D81" s="7">
-        <x:v>893.65</x:v>
+        <x:v>966.72</x:v>
       </x:c>
     </x:row>
     <x:row r="82" spans="1:27">
       <x:c r="B82" s="5" t="s">
-        <x:v>66</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="C82" s="5"/>
       <x:c r="D82" s="7">
-        <x:v>4775</x:v>
+        <x:v>900</x:v>
       </x:c>
     </x:row>
     <x:row r="83" spans="1:27">
       <x:c r="B83" s="5" t="s">
-        <x:v>62</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="C83" s="5"/>
       <x:c r="D83" s="7">
-        <x:v>900</x:v>
+        <x:v>4775</x:v>
       </x:c>
     </x:row>
     <x:row r="84" spans="1:27">
@@ -2200,10 +2200,10 @@
         <x:v>4390.84</x:v>
       </x:c>
       <x:c r="D98" s="7">
+        <x:v>20342.42</x:v>
+      </x:c>
+      <x:c r="E98" s="7">
         <x:v>2136.55</x:v>
-      </x:c>
-      <x:c r="E98" s="7">
-        <x:v>20342.42</x:v>
       </x:c>
       <x:c r="F98" s="7">
         <x:v>27262.72</x:v>
@@ -2314,10 +2314,10 @@
       <x:c r="C101" s="7">
         <x:v>186</x:v>
       </x:c>
-      <x:c r="D101" s="5"/>
-      <x:c r="E101" s="7">
+      <x:c r="D101" s="7">
         <x:v>897.73</x:v>
       </x:c>
+      <x:c r="E101" s="5"/>
       <x:c r="F101" s="7">
         <x:v>1152.64</x:v>
       </x:c>
@@ -2356,10 +2356,10 @@
         <x:v>516.42</x:v>
       </x:c>
       <x:c r="D102" s="7">
+        <x:v>1380.93</x:v>
+      </x:c>
+      <x:c r="E102" s="7">
         <x:v>456.84</x:v>
-      </x:c>
-      <x:c r="E102" s="7">
-        <x:v>1380.93</x:v>
       </x:c>
       <x:c r="F102" s="7">
         <x:v>3257.14</x:v>
@@ -2403,10 +2403,10 @@
         <x:v>3551.21</x:v>
       </x:c>
       <x:c r="D103" s="7">
+        <x:v>6263.64</x:v>
+      </x:c>
+      <x:c r="E103" s="7">
         <x:v>7000.55</x:v>
-      </x:c>
-      <x:c r="E103" s="7">
-        <x:v>6263.64</x:v>
       </x:c>
       <x:c r="F103" s="7">
         <x:v>10464.04</x:v>
@@ -2501,10 +2501,10 @@
         <x:v>720.78</x:v>
       </x:c>
       <x:c r="D105" s="7">
+        <x:v>1004.29</x:v>
+      </x:c>
+      <x:c r="E105" s="7">
         <x:v>3255.65</x:v>
-      </x:c>
-      <x:c r="E105" s="7">
-        <x:v>1004.29</x:v>
       </x:c>
       <x:c r="F105" s="5"/>
       <x:c r="G105" s="5"/>
@@ -2612,10 +2612,10 @@
       </x:c>
       <x:c r="C108" s="5"/>
       <x:c r="D108" s="7">
+        <x:v>99.16</x:v>
+      </x:c>
+      <x:c r="E108" s="7">
         <x:v>397.32</x:v>
-      </x:c>
-      <x:c r="E108" s="7">
-        <x:v>99.16</x:v>
       </x:c>
       <x:c r="F108" s="5"/>
       <x:c r="G108" s="7">
@@ -2657,10 +2657,10 @@
       </x:c>
       <x:c r="C109" s="5"/>
       <x:c r="D109" s="7">
+        <x:v>60575.58</x:v>
+      </x:c>
+      <x:c r="E109" s="7">
         <x:v>58553.7</x:v>
-      </x:c>
-      <x:c r="E109" s="7">
-        <x:v>60575.58</x:v>
       </x:c>
       <x:c r="F109" s="5"/>
       <x:c r="G109" s="5"/>
@@ -2734,10 +2734,10 @@
       <x:c r="C111" s="7">
         <x:v>537.21</x:v>
       </x:c>
-      <x:c r="D111" s="5"/>
-      <x:c r="E111" s="7">
+      <x:c r="D111" s="7">
         <x:v>1393.95</x:v>
       </x:c>
+      <x:c r="E111" s="5"/>
       <x:c r="F111" s="7">
         <x:v>3678.94</x:v>
       </x:c>
@@ -2776,10 +2776,10 @@
         <x:v>550.72</x:v>
       </x:c>
       <x:c r="D112" s="7">
+        <x:v>2343.18</x:v>
+      </x:c>
+      <x:c r="E112" s="7">
         <x:v>602.41</x:v>
-      </x:c>
-      <x:c r="E112" s="7">
-        <x:v>2343.18</x:v>
       </x:c>
       <x:c r="F112" s="7">
         <x:v>2809.61</x:v>

--- a/Provvigioni_Agenti/bin/Debug/excelAgenti/2025-TRIM-1--BCD RAPPRESENTANZE.xlsx
+++ b/Provvigioni_Agenti/bin/Debug/excelAgenti/2025-TRIM-1--BCD RAPPRESENTANZE.xlsx
@@ -1989,9 +1989,7 @@
       <x:c r="E92" s="5"/>
       <x:c r="F92" s="5"/>
       <x:c r="G92" s="5"/>
-      <x:c r="H92" s="7">
-        <x:v>808.2</x:v>
-      </x:c>
+      <x:c r="H92" s="5"/>
       <x:c r="I92" s="5"/>
       <x:c r="J92" s="5"/>
       <x:c r="K92" s="5"/>
@@ -2196,18 +2194,10 @@
       <x:c r="B98" s="5" t="s">
         <x:v>16</x:v>
       </x:c>
-      <x:c r="C98" s="7">
-        <x:v>4390.84</x:v>
-      </x:c>
-      <x:c r="D98" s="7">
-        <x:v>20342.42</x:v>
-      </x:c>
-      <x:c r="E98" s="7">
-        <x:v>2136.55</x:v>
-      </x:c>
-      <x:c r="F98" s="7">
-        <x:v>27262.72</x:v>
-      </x:c>
+      <x:c r="C98" s="5"/>
+      <x:c r="D98" s="5"/>
+      <x:c r="E98" s="5"/>
+      <x:c r="F98" s="5"/>
       <x:c r="G98" s="5"/>
       <x:c r="H98" s="5"/>
       <x:c r="I98" s="5"/>
@@ -2243,9 +2233,7 @@
       <x:c r="D99" s="5"/>
       <x:c r="E99" s="5"/>
       <x:c r="F99" s="5"/>
-      <x:c r="G99" s="7">
-        <x:v>371.37</x:v>
-      </x:c>
+      <x:c r="G99" s="5"/>
       <x:c r="H99" s="5"/>
       <x:c r="I99" s="5"/>
       <x:c r="J99" s="5"/>
@@ -2311,16 +2299,10 @@
       <x:c r="B101" s="5" t="s">
         <x:v>22</x:v>
       </x:c>
-      <x:c r="C101" s="7">
-        <x:v>186</x:v>
-      </x:c>
-      <x:c r="D101" s="7">
-        <x:v>897.73</x:v>
-      </x:c>
+      <x:c r="C101" s="5"/>
+      <x:c r="D101" s="5"/>
       <x:c r="E101" s="5"/>
-      <x:c r="F101" s="7">
-        <x:v>1152.64</x:v>
-      </x:c>
+      <x:c r="F101" s="5"/>
       <x:c r="G101" s="5"/>
       <x:c r="H101" s="5"/>
       <x:c r="I101" s="5"/>
@@ -2352,25 +2334,13 @@
       <x:c r="B102" s="5" t="s">
         <x:v>24</x:v>
       </x:c>
-      <x:c r="C102" s="7">
-        <x:v>516.42</x:v>
-      </x:c>
-      <x:c r="D102" s="7">
-        <x:v>1380.93</x:v>
-      </x:c>
-      <x:c r="E102" s="7">
-        <x:v>456.84</x:v>
-      </x:c>
-      <x:c r="F102" s="7">
-        <x:v>3257.14</x:v>
-      </x:c>
-      <x:c r="G102" s="7">
-        <x:v>659.68</x:v>
-      </x:c>
+      <x:c r="C102" s="5"/>
+      <x:c r="D102" s="5"/>
+      <x:c r="E102" s="5"/>
+      <x:c r="F102" s="5"/>
+      <x:c r="G102" s="5"/>
       <x:c r="H102" s="5"/>
-      <x:c r="I102" s="7">
-        <x:v>1268.42</x:v>
-      </x:c>
+      <x:c r="I102" s="5"/>
       <x:c r="J102" s="5"/>
       <x:c r="K102" s="5"/>
       <x:c r="L102" s="5"/>
@@ -2399,54 +2369,26 @@
       <x:c r="B103" s="5" t="s">
         <x:v>26</x:v>
       </x:c>
-      <x:c r="C103" s="7">
-        <x:v>3551.21</x:v>
-      </x:c>
-      <x:c r="D103" s="7">
-        <x:v>6263.64</x:v>
-      </x:c>
-      <x:c r="E103" s="7">
-        <x:v>7000.55</x:v>
-      </x:c>
-      <x:c r="F103" s="7">
-        <x:v>10464.04</x:v>
-      </x:c>
+      <x:c r="C103" s="5"/>
+      <x:c r="D103" s="5"/>
+      <x:c r="E103" s="5"/>
+      <x:c r="F103" s="5"/>
       <x:c r="G103" s="5"/>
       <x:c r="H103" s="5"/>
-      <x:c r="I103" s="7">
-        <x:v>10036.74</x:v>
-      </x:c>
-      <x:c r="J103" s="7">
-        <x:v>436.32</x:v>
-      </x:c>
+      <x:c r="I103" s="5"/>
+      <x:c r="J103" s="5"/>
       <x:c r="K103" s="5"/>
-      <x:c r="L103" s="7">
-        <x:v>3832.83</x:v>
-      </x:c>
+      <x:c r="L103" s="5"/>
       <x:c r="M103" s="5"/>
-      <x:c r="N103" s="7">
-        <x:v>500</x:v>
-      </x:c>
-      <x:c r="O103" s="7">
-        <x:v>2096.14</x:v>
-      </x:c>
+      <x:c r="N103" s="5"/>
+      <x:c r="O103" s="5"/>
       <x:c r="P103" s="5"/>
       <x:c r="Q103" s="5"/>
-      <x:c r="R103" s="7">
-        <x:v>900</x:v>
-      </x:c>
-      <x:c r="S103" s="7">
-        <x:v>121.68</x:v>
-      </x:c>
-      <x:c r="T103" s="7">
-        <x:v>287.64</x:v>
-      </x:c>
-      <x:c r="U103" s="7">
-        <x:v>893.65</x:v>
-      </x:c>
-      <x:c r="V103" s="7">
-        <x:v>4775</x:v>
-      </x:c>
+      <x:c r="R103" s="5"/>
+      <x:c r="S103" s="5"/>
+      <x:c r="T103" s="5"/>
+      <x:c r="U103" s="5"/>
+      <x:c r="V103" s="5"/>
       <x:c r="W103" s="5"/>
       <x:c r="X103" s="5"/>
       <x:c r="Y103" s="5"/>
@@ -2497,15 +2439,9 @@
       <x:c r="B105" s="5" t="s">
         <x:v>28</x:v>
       </x:c>
-      <x:c r="C105" s="7">
-        <x:v>720.78</x:v>
-      </x:c>
-      <x:c r="D105" s="7">
-        <x:v>1004.29</x:v>
-      </x:c>
-      <x:c r="E105" s="7">
-        <x:v>3255.65</x:v>
-      </x:c>
+      <x:c r="C105" s="5"/>
+      <x:c r="D105" s="5"/>
+      <x:c r="E105" s="5"/>
       <x:c r="F105" s="5"/>
       <x:c r="G105" s="5"/>
       <x:c r="H105" s="5"/>
@@ -2581,9 +2517,7 @@
       <x:c r="H107" s="5"/>
       <x:c r="I107" s="5"/>
       <x:c r="J107" s="5"/>
-      <x:c r="K107" s="7">
-        <x:v>0</x:v>
-      </x:c>
+      <x:c r="K107" s="5"/>
       <x:c r="L107" s="5"/>
       <x:c r="M107" s="5"/>
       <x:c r="N107" s="5"/>
@@ -2611,23 +2545,13 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="C108" s="5"/>
-      <x:c r="D108" s="7">
-        <x:v>99.16</x:v>
-      </x:c>
-      <x:c r="E108" s="7">
-        <x:v>397.32</x:v>
-      </x:c>
+      <x:c r="D108" s="5"/>
+      <x:c r="E108" s="5"/>
       <x:c r="F108" s="5"/>
-      <x:c r="G108" s="7">
-        <x:v>976.5</x:v>
-      </x:c>
+      <x:c r="G108" s="5"/>
       <x:c r="H108" s="5"/>
-      <x:c r="I108" s="7">
-        <x:v>12016.01</x:v>
-      </x:c>
-      <x:c r="J108" s="7">
-        <x:v>280.8</x:v>
-      </x:c>
+      <x:c r="I108" s="5"/>
+      <x:c r="J108" s="5"/>
       <x:c r="K108" s="5"/>
       <x:c r="L108" s="5"/>
       <x:c r="M108" s="5"/>
@@ -2656,12 +2580,8 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="C109" s="5"/>
-      <x:c r="D109" s="7">
-        <x:v>60575.58</x:v>
-      </x:c>
-      <x:c r="E109" s="7">
-        <x:v>58553.7</x:v>
-      </x:c>
+      <x:c r="D109" s="5"/>
+      <x:c r="E109" s="5"/>
       <x:c r="F109" s="5"/>
       <x:c r="G109" s="5"/>
       <x:c r="H109" s="5"/>
@@ -2671,9 +2591,7 @@
       <x:c r="L109" s="5"/>
       <x:c r="M109" s="5"/>
       <x:c r="N109" s="5"/>
-      <x:c r="O109" s="7">
-        <x:v>93719.14</x:v>
-      </x:c>
+      <x:c r="O109" s="5"/>
       <x:c r="P109" s="5"/>
       <x:c r="Q109" s="5"/>
       <x:c r="R109" s="5"/>
@@ -2731,16 +2649,10 @@
       <x:c r="B111" s="5" t="s">
         <x:v>36</x:v>
       </x:c>
-      <x:c r="C111" s="7">
-        <x:v>537.21</x:v>
-      </x:c>
-      <x:c r="D111" s="7">
-        <x:v>1393.95</x:v>
-      </x:c>
+      <x:c r="C111" s="5"/>
+      <x:c r="D111" s="5"/>
       <x:c r="E111" s="5"/>
-      <x:c r="F111" s="7">
-        <x:v>3678.94</x:v>
-      </x:c>
+      <x:c r="F111" s="5"/>
       <x:c r="G111" s="5"/>
       <x:c r="H111" s="5"/>
       <x:c r="I111" s="5"/>
@@ -2772,30 +2684,16 @@
       <x:c r="B112" s="5" t="s">
         <x:v>38</x:v>
       </x:c>
-      <x:c r="C112" s="7">
-        <x:v>550.72</x:v>
-      </x:c>
-      <x:c r="D112" s="7">
-        <x:v>2343.18</x:v>
-      </x:c>
-      <x:c r="E112" s="7">
-        <x:v>602.41</x:v>
-      </x:c>
-      <x:c r="F112" s="7">
-        <x:v>2809.61</x:v>
-      </x:c>
+      <x:c r="C112" s="5"/>
+      <x:c r="D112" s="5"/>
+      <x:c r="E112" s="5"/>
+      <x:c r="F112" s="5"/>
       <x:c r="G112" s="5"/>
       <x:c r="H112" s="5"/>
-      <x:c r="I112" s="7">
-        <x:v>2199.15</x:v>
-      </x:c>
-      <x:c r="J112" s="7">
-        <x:v>249.6</x:v>
-      </x:c>
+      <x:c r="I112" s="5"/>
+      <x:c r="J112" s="5"/>
       <x:c r="K112" s="5"/>
-      <x:c r="L112" s="7">
-        <x:v>3789.16</x:v>
-      </x:c>
+      <x:c r="L112" s="5"/>
       <x:c r="M112" s="5"/>
       <x:c r="N112" s="5"/>
       <x:c r="O112" s="5"/>
